--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERP_Project\ERP_Hybrid_Framework\FileOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERP_Project\ERP_Hybrid_Framework\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722D0E7-D413-4CED-B8AB-ADF37D3AD238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D438C70D-F2F3-4877-91A7-F31EBD3EB1CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
-    <sheet name="Supplier" sheetId="4" r:id="rId4"/>
+    <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
+    <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
+    <sheet name="StockCategory" r:id="rId3" sheetId="3"/>
+    <sheet name="Supplier" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="112">
   <si>
     <t>TCID</t>
   </si>
@@ -370,7 +370,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,431 +403,694 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -868,83 +1132,140 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="121">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -961,10 +1282,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -999,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1034,7 +1355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1128,21 +1449,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1159,7 +1480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1211,15 +1532,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1227,12 +1548,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row ht="23.25" r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1577,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s" s="25">
         <v>110</v>
       </c>
     </row>
@@ -1270,7 +1591,7 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" t="s" s="63">
         <v>110</v>
       </c>
     </row>
@@ -1284,7 +1605,7 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" t="s" s="119">
         <v>110</v>
       </c>
     </row>
@@ -1298,35 +1619,35 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" t="s" s="120">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FFDB4-AF5E-463F-8451-22336BC6B73C}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FFDB4-AF5E-463F-8451-22336BC6B73C}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row ht="23.25" r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1683,7 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s" s="6">
         <v>110</v>
       </c>
     </row>
@@ -1382,7 +1703,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s" s="8">
         <v>110</v>
       </c>
     </row>
@@ -1402,7 +1723,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s" s="10">
         <v>110</v>
       </c>
     </row>
@@ -1422,7 +1743,7 @@
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s" s="12">
         <v>110</v>
       </c>
     </row>
@@ -1442,7 +1763,7 @@
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s" s="14">
         <v>110</v>
       </c>
     </row>
@@ -1462,7 +1783,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s" s="16">
         <v>110</v>
       </c>
     </row>
@@ -1482,7 +1803,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s" s="18">
         <v>110</v>
       </c>
     </row>
@@ -1499,10 +1820,10 @@
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" t="s" s="20">
         <v>110</v>
       </c>
     </row>
@@ -1522,7 +1843,7 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s" s="22">
         <v>110</v>
       </c>
     </row>
@@ -1542,18 +1863,18 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s" s="24">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C2564C-339C-4153-80C9-C5FB9A0ABE9D}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C2564C-339C-4153-80C9-C5FB9A0ABE9D}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1561,15 +1882,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row ht="23.25" r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,7 +1926,7 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s" s="26">
         <v>110</v>
       </c>
     </row>
@@ -1625,7 +1946,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" t="s" s="28">
         <v>110</v>
       </c>
     </row>
@@ -1645,7 +1966,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" t="s" s="30">
         <v>110</v>
       </c>
     </row>
@@ -1665,7 +1986,7 @@
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" t="s" s="32">
         <v>110</v>
       </c>
     </row>
@@ -1685,7 +2006,7 @@
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" t="s" s="34">
         <v>110</v>
       </c>
     </row>
@@ -1705,7 +2026,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" t="s" s="36">
         <v>110</v>
       </c>
     </row>
@@ -1725,7 +2046,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" t="s" s="38">
         <v>110</v>
       </c>
     </row>
@@ -1745,7 +2066,7 @@
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" t="s" s="40">
         <v>110</v>
       </c>
     </row>
@@ -1765,7 +2086,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" t="s" s="42">
         <v>110</v>
       </c>
     </row>
@@ -1785,7 +2106,7 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" t="s" s="44">
         <v>110</v>
       </c>
     </row>
@@ -1805,7 +2126,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" t="s" s="46">
         <v>110</v>
       </c>
     </row>
@@ -1825,7 +2146,7 @@
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" t="s" s="48">
         <v>110</v>
       </c>
     </row>
@@ -1845,7 +2166,7 @@
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" t="s" s="50">
         <v>110</v>
       </c>
     </row>
@@ -1865,7 +2186,7 @@
       <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" t="s" s="52">
         <v>110</v>
       </c>
     </row>
@@ -1885,7 +2206,7 @@
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" t="s" s="54">
         <v>110</v>
       </c>
     </row>
@@ -1905,7 +2226,7 @@
       <c r="E17" s="3">
         <v>10</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" t="s" s="56">
         <v>110</v>
       </c>
     </row>
@@ -1925,7 +2246,7 @@
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" t="s" s="58">
         <v>110</v>
       </c>
     </row>
@@ -1945,7 +2266,7 @@
       <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" t="s" s="60">
         <v>110</v>
       </c>
     </row>
@@ -1965,35 +2286,35 @@
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" t="s" s="62">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372536B-AD7F-4D4C-9E10-D146E4CC84CC}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372536B-AD7F-4D4C-9E10-D146E4CC84CC}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row ht="23.25" r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2350,7 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" t="s" s="64">
         <v>110</v>
       </c>
     </row>
@@ -2049,7 +2370,7 @@
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" t="s" s="66">
         <v>110</v>
       </c>
     </row>
@@ -2069,7 +2390,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" t="s" s="68">
         <v>110</v>
       </c>
     </row>
@@ -2089,7 +2410,7 @@
       <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" t="s" s="70">
         <v>110</v>
       </c>
     </row>
@@ -2109,7 +2430,7 @@
       <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" t="s" s="72">
         <v>110</v>
       </c>
     </row>
@@ -2129,18 +2450,18 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" t="s" s="74">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2149,38 +2470,38 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" t="s" s="76">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="78">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2189,38 +2510,38 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" t="s" s="80">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="44" t="s">
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="82">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2229,18 +2550,18 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" t="s" s="84">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2249,18 +2570,18 @@
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" t="s" s="86">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2269,18 +2590,18 @@
       <c r="E14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" t="s" s="88">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2289,18 +2610,18 @@
       <c r="E15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" t="s" s="90">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2309,18 +2630,18 @@
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" t="s" s="92">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2329,18 +2650,18 @@
       <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" t="s" s="94">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2349,18 +2670,18 @@
       <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" t="s" s="96">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2369,18 +2690,18 @@
       <c r="E19" s="3">
         <v>9876543210</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" t="s" s="98">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2389,18 +2710,18 @@
       <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" t="s" s="100">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2409,18 +2730,18 @@
       <c r="E21" s="3">
         <v>1234567890</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" t="s" s="102">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2429,38 +2750,38 @@
       <c r="E22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" t="s" s="104">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="106">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2469,18 +2790,18 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" t="s" s="108">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2489,18 +2810,18 @@
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" t="s" s="110">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2509,47 +2830,47 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" t="s" s="112">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="60" t="s">
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="114">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="61" t="s">
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="116">
         <v>110</v>
       </c>
     </row>
@@ -2569,12 +2890,12 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" t="s" s="118">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>